--- a/biology/Zoologie/Cormoran_de_Gaimard/Cormoran_de_Gaimard.xlsx
+++ b/biology/Zoologie/Cormoran_de_Gaimard/Cormoran_de_Gaimard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalacrocorax gaimardi
 Le Cormoran de Gaimard (Phalacrocorax gaimardi) est une espèce d'oiseau de la famille des phalacrocoracidés.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gris domine le plumage de ce cormoran élancé. Chaque côté du cou est marqué d'une large tache blanche. En vol, les rémiges contrastent avec le reste des ailes, plus clair. Le bec est bicolore : sa base est rouge tandis que le reste est jaune. Ses pattes rouge vif le distinguent des autres cormorans présents sur son aire de répartition.
 </t>
@@ -543,7 +557,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom commémore le zoologiste Joseph Paul Gaimard (1796-1858).
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il réside le long des côtes du Pérou, du Chili et de l'est de la Patagonie.
 </t>
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cormoran de Gaimard est essentiellement solitaire quoiqu'il s'observe parfois en petits groupes.
 </t>
@@ -636,7 +656,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche seul ou en colonie dans les anfractuosités des parois rocheuses sur les îlots isolés le long des côtes.
 </t>
@@ -667,7 +689,9 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La population de cette espèce n'est pas très abondante et est actuellement en déclin. Elle compterait entre 10 000 et 25 000 individus en 2018.
 </t>
